--- a/frontend-career-counselling/FullstackPreprationDetails.xlsx
+++ b/frontend-career-counselling/FullstackPreprationDetails.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-frontend-Naqeem\Training\frontend-career-counselling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Frontend-Technologies\Training\frontend-career-counselling\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D6D433-3075-407F-B10D-2B2CBB4418EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>TECHNOLOGIES</t>
   </si>
@@ -51,12 +52,42 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular     </t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPs        </t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C#          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typescript  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">communication </t>
+  </si>
+  <si>
+    <t>15 mins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,9 +153,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -132,6 +160,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,60 +456,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
